--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Gfra1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Gfra1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H2">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I2">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J2">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N2">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O2">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P2">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q2">
-        <v>0.02699509679</v>
+        <v>0.05308426414055555</v>
       </c>
       <c r="R2">
-        <v>0.24295587111</v>
+        <v>0.477758377265</v>
       </c>
       <c r="S2">
-        <v>0.0004353856722120705</v>
+        <v>0.001277884052857645</v>
       </c>
       <c r="T2">
-        <v>0.0005501419388531197</v>
+        <v>0.001382493397977825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H3">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I3">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J3">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>30.440863</v>
       </c>
       <c r="O3">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P3">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q3">
-        <v>2.142830433795222</v>
+        <v>5.325003252999444</v>
       </c>
       <c r="R3">
-        <v>19.285473904157</v>
+        <v>47.925029276995</v>
       </c>
       <c r="S3">
-        <v>0.03456026389207161</v>
+        <v>0.128187455333385</v>
       </c>
       <c r="T3">
-        <v>0.04366944481259535</v>
+        <v>0.1386810566308271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2111796666666667</v>
+        <v>0.5247883333333333</v>
       </c>
       <c r="H4">
-        <v>0.6335390000000001</v>
+        <v>1.574365</v>
       </c>
       <c r="I4">
-        <v>0.05874445468172133</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="J4">
-        <v>0.06422516575357994</v>
+        <v>0.1674845870648259</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N4">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O4">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P4">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q4">
-        <v>1.472490561149667</v>
+        <v>1.579348127619167</v>
       </c>
       <c r="R4">
-        <v>8.834943366898001</v>
+        <v>9.476088765715</v>
       </c>
       <c r="S4">
-        <v>0.02374880511743764</v>
+        <v>0.03801924767858321</v>
       </c>
       <c r="T4">
-        <v>0.02000557900213146</v>
+        <v>0.02742103703602092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +729,40 @@
         <v>6.719791</v>
       </c>
       <c r="I5">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J5">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N5">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O5">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P5">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q5">
-        <v>0.28633029451</v>
+        <v>0.2265771662945555</v>
       </c>
       <c r="R5">
-        <v>2.57697265059</v>
+        <v>2.039194496651</v>
       </c>
       <c r="S5">
-        <v>0.004618027811483777</v>
+        <v>0.005454334768262969</v>
       </c>
       <c r="T5">
-        <v>0.005835219062169406</v>
+        <v>0.005900834109809862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +791,10 @@
         <v>6.719791</v>
       </c>
       <c r="I6">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J6">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>30.440863</v>
       </c>
       <c r="O6">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P6">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q6">
         <v>22.72847080218144</v>
@@ -821,10 +821,10 @@
         <v>204.556237219633</v>
       </c>
       <c r="S6">
-        <v>0.3665721451395538</v>
+        <v>0.5471367241155529</v>
       </c>
       <c r="T6">
-        <v>0.463190967291161</v>
+        <v>0.5919260884345896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>6.719791</v>
       </c>
       <c r="I7">
-        <v>0.6230878570540074</v>
+        <v>0.7148668960482055</v>
       </c>
       <c r="J7">
-        <v>0.6812203996982262</v>
+        <v>0.7148668960482057</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N7">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O7">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P7">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q7">
-        <v>15.61834207586033</v>
+        <v>6.741060258480166</v>
       </c>
       <c r="R7">
-        <v>93.710052455162</v>
+        <v>40.446361550881</v>
       </c>
       <c r="S7">
-        <v>0.2518976841029698</v>
+        <v>0.1622758371643896</v>
       </c>
       <c r="T7">
-        <v>0.2121942133448958</v>
+        <v>0.1170399735038063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H8">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I8">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J8">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N8">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O8">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P8">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q8">
-        <v>0.02856467875</v>
+        <v>0.03728871447588888</v>
       </c>
       <c r="R8">
-        <v>0.25708210875</v>
+        <v>0.335598430283</v>
       </c>
       <c r="S8">
-        <v>0.0004607003988849411</v>
+        <v>0.0008976417842796484</v>
       </c>
       <c r="T8">
-        <v>0.0005821289648445636</v>
+        <v>0.0009711239746207965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H9">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I9">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J9">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>30.440863</v>
       </c>
       <c r="O9">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P9">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q9">
-        <v>2.267421503736111</v>
+        <v>3.740515746032111</v>
       </c>
       <c r="R9">
-        <v>20.406793533625</v>
+        <v>33.664641714289</v>
       </c>
       <c r="S9">
-        <v>0.03656970905760736</v>
+        <v>0.09004448867674046</v>
       </c>
       <c r="T9">
-        <v>0.04620852712499721</v>
+        <v>0.09741565429312875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2234583333333333</v>
+        <v>0.3686343333333333</v>
       </c>
       <c r="H10">
-        <v>0.6703750000000001</v>
+        <v>1.105903</v>
       </c>
       <c r="I10">
-        <v>0.06216004666999022</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="J10">
-        <v>0.06795942395346796</v>
+        <v>0.1176485168869685</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N10">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O10">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P10">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q10">
-        <v>1.558105909708333</v>
+        <v>1.109403367312167</v>
       </c>
       <c r="R10">
-        <v>9.348635458250001</v>
+        <v>6.656420203873</v>
       </c>
       <c r="S10">
-        <v>0.02512963721349792</v>
+        <v>0.02670638642594837</v>
       </c>
       <c r="T10">
-        <v>0.0211687678636262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H11">
-        <v>1.840637</v>
-      </c>
-      <c r="I11">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J11">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.12783</v>
-      </c>
-      <c r="N11">
-        <v>0.38349</v>
-      </c>
-      <c r="O11">
-        <v>0.007411519513986452</v>
-      </c>
-      <c r="P11">
-        <v>0.008565831359064333</v>
-      </c>
-      <c r="Q11">
-        <v>0.117644313855</v>
-      </c>
-      <c r="R11">
-        <v>0.70586588313</v>
-      </c>
-      <c r="S11">
-        <v>0.001897405631405664</v>
-      </c>
-      <c r="T11">
-        <v>0.001598341393197245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.840637</v>
-      </c>
-      <c r="I12">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J12">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>10.14695433333333</v>
-      </c>
-      <c r="N12">
-        <v>30.440863</v>
-      </c>
-      <c r="O12">
-        <v>0.5883153410704013</v>
-      </c>
-      <c r="P12">
-        <v>0.6799428899903026</v>
-      </c>
-      <c r="Q12">
-        <v>9.338429791621833</v>
-      </c>
-      <c r="R12">
-        <v>56.030578749731</v>
-      </c>
-      <c r="S12">
-        <v>0.1506132229811685</v>
-      </c>
-      <c r="T12">
-        <v>0.1268739507615491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.9203184999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.840637</v>
-      </c>
-      <c r="I13">
-        <v>0.256007641594281</v>
-      </c>
-      <c r="J13">
-        <v>0.1865950105947259</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.972691</v>
-      </c>
-      <c r="N13">
-        <v>13.945382</v>
-      </c>
-      <c r="O13">
-        <v>0.4042731394156123</v>
-      </c>
-      <c r="P13">
-        <v>0.3114912786506331</v>
-      </c>
-      <c r="Q13">
-        <v>6.4170965220835</v>
-      </c>
-      <c r="R13">
-        <v>25.668386088334</v>
-      </c>
-      <c r="S13">
-        <v>0.1034970129817069</v>
-      </c>
-      <c r="T13">
-        <v>0.05812271843997961</v>
+        <v>0.01926173861921895</v>
       </c>
     </row>
   </sheetData>
